--- a/Data_1.xlsx
+++ b/Data_1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.alistratenko\Desktop\diploma\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF28883-7B56-4F63-9E99-60293FDA2772}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" tabRatio="843" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5580" tabRatio="843" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Вакцинація" sheetId="2" r:id="rId1"/>
@@ -27,7 +21,7 @@
     <definedName name="CBx_SheetRef" localSheetId="3" hidden="1">CB_DATA_!$A$14</definedName>
     <definedName name="CBx_StorageType" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -242,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -456,8 +450,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,9 +467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,9 +507,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,26 +542,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,26 +577,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -792,23 +752,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -822,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2013</v>
       </c>
@@ -836,7 +796,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>41</v>
@@ -848,7 +808,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>42</v>
@@ -860,7 +820,7 @@
         <v>15799</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>43</v>
@@ -872,7 +832,7 @@
         <v>25385</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>44</v>
@@ -884,7 +844,7 @@
         <v>23297</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>45</v>
@@ -896,7 +856,7 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>46</v>
@@ -908,7 +868,7 @@
         <v>32386</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>47</v>
@@ -920,7 +880,7 @@
         <v>26325</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>48</v>
@@ -932,7 +892,7 @@
         <v>21739</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>49</v>
@@ -944,7 +904,7 @@
         <v>19349</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>50</v>
@@ -956,7 +916,7 @@
         <v>15388</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>51</v>
@@ -968,7 +928,7 @@
         <v>12884</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>52</v>
@@ -980,7 +940,7 @@
         <v>8079</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2014</v>
       </c>
@@ -994,7 +954,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>2</v>
@@ -1006,7 +966,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -1017,7 +977,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>4</v>
       </c>
@@ -1028,7 +988,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1039,7 +999,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>6</v>
       </c>
@@ -1050,7 +1010,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>7</v>
       </c>
@@ -1061,7 +1021,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>8</v>
       </c>
@@ -1072,7 +1032,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>9</v>
       </c>
@@ -1083,7 +1043,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>10</v>
       </c>
@@ -1094,7 +1054,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>11</v>
       </c>
@@ -1105,7 +1065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>12</v>
       </c>
@@ -1116,7 +1076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>13</v>
       </c>
@@ -1127,7 +1087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>14</v>
       </c>
@@ -1138,7 +1098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>15</v>
       </c>
@@ -1149,7 +1109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>16</v>
       </c>
@@ -1160,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>17</v>
       </c>
@@ -1171,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>18</v>
       </c>
@@ -1182,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>19</v>
@@ -1194,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>20</v>
@@ -1206,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>40</v>
@@ -1218,7 +1178,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>41</v>
@@ -1230,7 +1190,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>42</v>
@@ -1242,7 +1202,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>43</v>
@@ -1254,7 +1214,7 @@
         <v>8590</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>44</v>
@@ -1266,7 +1226,7 @@
         <v>7271</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>45</v>
@@ -1278,7 +1238,7 @@
         <v>8108</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>46</v>
@@ -1290,7 +1250,7 @@
         <v>14410</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>47</v>
@@ -1302,7 +1262,7 @@
         <v>21615</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>48</v>
@@ -1314,7 +1274,7 @@
         <v>18414</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>49</v>
@@ -1326,7 +1286,7 @@
         <v>12015</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>50</v>
@@ -1338,7 +1298,7 @@
         <v>15204</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>51</v>
@@ -1350,7 +1310,7 @@
         <v>8369</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>52</v>
@@ -1362,7 +1322,7 @@
         <v>8419</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2015</v>
       </c>
@@ -1376,7 +1336,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>2</v>
       </c>
@@ -1387,7 +1347,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>3</v>
       </c>
@@ -1398,7 +1358,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>4</v>
       </c>
@@ -1409,7 +1369,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>5</v>
       </c>
@@ -1420,7 +1380,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>6</v>
       </c>
@@ -1431,7 +1391,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>7</v>
       </c>
@@ -1442,7 +1402,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>8</v>
       </c>
@@ -1453,7 +1413,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>9</v>
       </c>
@@ -1464,7 +1424,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>10</v>
       </c>
@@ -1475,7 +1435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>11</v>
       </c>
@@ -1486,7 +1446,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>12</v>
       </c>
@@ -1497,7 +1457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>13</v>
       </c>
@@ -1508,7 +1468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>14</v>
       </c>
@@ -1519,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>15</v>
       </c>
@@ -1530,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>16</v>
       </c>
@@ -1541,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>17</v>
       </c>
@@ -1552,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>18</v>
       </c>
@@ -1563,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>19</v>
       </c>
@@ -1574,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>20</v>
       </c>
@@ -1585,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>40</v>
       </c>
@@ -1596,7 +1556,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>41</v>
       </c>
@@ -1607,7 +1567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>42</v>
       </c>
@@ -1618,7 +1578,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>43</v>
       </c>
@@ -1629,7 +1589,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>44</v>
       </c>
@@ -1640,7 +1600,7 @@
         <v>5361</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>45</v>
       </c>
@@ -1651,7 +1611,7 @@
         <v>13896</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>46</v>
       </c>
@@ -1662,7 +1622,7 @@
         <v>18489</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>47</v>
       </c>
@@ -1673,7 +1633,7 @@
         <v>15728</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>48</v>
       </c>
@@ -1684,7 +1644,7 @@
         <v>17444</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>49</v>
       </c>
@@ -1695,7 +1655,7 @@
         <v>14953</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>50</v>
       </c>
@@ -1706,7 +1666,7 @@
         <v>10617</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>51</v>
       </c>
@@ -1717,7 +1677,7 @@
         <v>6808</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>52</v>
       </c>
@@ -1728,7 +1688,7 @@
         <v>7505</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>2016</v>
       </c>
@@ -1742,7 +1702,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2">
         <v>2</v>
@@ -1754,7 +1714,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2">
         <v>3</v>
@@ -1766,7 +1726,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2">
         <v>4</v>
@@ -1778,7 +1738,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2">
         <v>5</v>
@@ -1790,7 +1750,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2">
         <v>6</v>
@@ -1802,7 +1762,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2">
         <v>7</v>
@@ -1814,7 +1774,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>8</v>
@@ -1826,7 +1786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2">
         <v>9</v>
@@ -1838,7 +1798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2">
         <v>10</v>
@@ -1850,7 +1810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>11</v>
@@ -1862,7 +1822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2">
         <v>12</v>
@@ -1874,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2">
         <v>13</v>
@@ -1886,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>14</v>
@@ -1898,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
         <v>15</v>
@@ -1910,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>16</v>
@@ -1922,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
         <v>17</v>
       </c>
@@ -1933,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B98" s="2">
         <v>18</v>
       </c>
@@ -1944,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
         <v>19</v>
       </c>
@@ -1955,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
         <v>20</v>
       </c>
@@ -1966,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B101" s="2">
         <v>40</v>
       </c>
@@ -1977,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
         <v>41</v>
       </c>
@@ -1988,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
         <v>42</v>
       </c>
@@ -1999,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B104" s="2">
         <v>43</v>
       </c>
@@ -2010,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B105" s="2">
         <v>44</v>
       </c>
@@ -2021,7 +1981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
         <v>45</v>
       </c>
@@ -2032,7 +1992,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>46</v>
       </c>
@@ -2043,7 +2003,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>47</v>
       </c>
@@ -2054,7 +2014,7 @@
         <v>16883</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>48</v>
       </c>
@@ -2065,7 +2025,7 @@
         <v>20946</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>49</v>
       </c>
@@ -2076,7 +2036,7 @@
         <v>13557</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>50</v>
       </c>
@@ -2087,7 +2047,7 @@
         <v>13706</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>51</v>
       </c>
@@ -2098,7 +2058,7 @@
         <v>30409</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2">
         <v>52</v>
@@ -2110,7 +2070,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2">
         <v>53</v>
@@ -2122,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>2017</v>
       </c>
@@ -2136,7 +2096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2">
         <v>2</v>
@@ -2148,7 +2108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2">
         <v>3</v>
@@ -2160,7 +2120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2">
         <v>4</v>
@@ -2172,7 +2132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2">
         <v>5</v>
@@ -2184,7 +2144,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2">
         <v>6</v>
@@ -2196,7 +2156,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2">
         <v>7</v>
@@ -2208,7 +2168,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2">
         <v>8</v>
@@ -2220,7 +2180,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2">
         <v>9</v>
@@ -2232,7 +2192,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2">
         <v>10</v>
@@ -2244,7 +2204,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2">
         <v>11</v>
@@ -2256,7 +2216,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2">
         <v>12</v>
@@ -2266,7 +2226,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2">
         <v>13</v>
@@ -2278,7 +2238,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2">
         <v>14</v>
@@ -2290,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B129" s="2">
         <v>15</v>
       </c>
@@ -2301,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B130" s="2">
         <v>16</v>
       </c>
@@ -2312,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B131" s="2">
         <v>17</v>
       </c>
@@ -2323,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B132" s="2">
         <v>18</v>
       </c>
@@ -2334,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B133" s="2">
         <v>19</v>
       </c>
@@ -2345,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B134" s="2">
         <v>20</v>
       </c>
@@ -2356,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B135" s="2">
         <v>40</v>
       </c>
@@ -2367,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B136" s="2">
         <v>41</v>
       </c>
@@ -2378,7 +2338,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B137" s="2">
         <v>42</v>
       </c>
@@ -2389,7 +2349,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B138" s="2">
         <v>43</v>
       </c>
@@ -2400,7 +2360,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B139" s="2">
         <v>44</v>
       </c>
@@ -2411,7 +2371,7 @@
         <v>8115</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B140" s="2">
         <v>45</v>
       </c>
@@ -2422,7 +2382,7 @@
         <v>29689</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B141" s="2">
         <v>46</v>
       </c>
@@ -2433,7 +2393,7 @@
         <v>36474</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B142" s="2">
         <v>47</v>
       </c>
@@ -2444,7 +2404,7 @@
         <v>29679</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B143" s="2">
         <v>48</v>
       </c>
@@ -2455,7 +2415,7 @@
         <v>25878</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B144" s="2">
         <v>49</v>
       </c>
@@ -2466,7 +2426,7 @@
         <v>12944</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2">
         <v>50</v>
@@ -2478,7 +2438,7 @@
         <v>9126</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2">
         <v>51</v>
@@ -2490,7 +2450,7 @@
         <v>8994</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2">
         <v>52</v>
@@ -2502,7 +2462,7 @@
         <v>4808</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>2018</v>
       </c>
@@ -2516,7 +2476,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2">
         <v>2</v>
@@ -2528,7 +2488,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2">
         <v>3</v>
@@ -2540,7 +2500,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2">
         <v>4</v>
@@ -2552,7 +2512,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2">
         <v>5</v>
@@ -2564,7 +2524,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2">
         <v>6</v>
@@ -2576,7 +2536,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
         <v>7</v>
@@ -2588,7 +2548,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2">
         <v>8</v>
@@ -2600,7 +2560,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B156" s="2">
         <v>9</v>
       </c>
@@ -2611,7 +2571,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B157" s="2">
         <v>10</v>
       </c>
@@ -2622,7 +2582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B158" s="2">
         <v>11</v>
       </c>
@@ -2633,7 +2593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B159" s="2">
         <v>12</v>
       </c>
@@ -2644,7 +2604,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B160" s="2">
         <v>13</v>
       </c>
@@ -2655,7 +2615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B161" s="2">
         <v>14</v>
       </c>
@@ -2666,7 +2626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B162" s="2">
         <v>15</v>
       </c>
@@ -2677,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B163" s="2">
         <v>16</v>
       </c>
@@ -2688,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B164" s="2">
         <v>17</v>
       </c>
@@ -2699,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B165" s="2">
         <v>18</v>
       </c>
@@ -2710,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B166" s="2">
         <v>19</v>
       </c>
@@ -2721,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B167" s="2">
         <v>20</v>
       </c>
@@ -2732,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B168" s="2"/>
     </row>
   </sheetData>
@@ -2741,276 +2701,276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2" max="4" width="8.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="14" customWidth="1"/>
-    <col min="6" max="13" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15" max="256" width="9.109375" style="14"/>
-    <col min="257" max="257" width="18.6640625" style="14" customWidth="1"/>
-    <col min="258" max="269" width="8.6640625" style="14" customWidth="1"/>
-    <col min="270" max="270" width="13.88671875" style="14" customWidth="1"/>
-    <col min="271" max="512" width="9.109375" style="14"/>
-    <col min="513" max="513" width="18.6640625" style="14" customWidth="1"/>
-    <col min="514" max="525" width="8.6640625" style="14" customWidth="1"/>
-    <col min="526" max="526" width="13.88671875" style="14" customWidth="1"/>
-    <col min="527" max="768" width="9.109375" style="14"/>
-    <col min="769" max="769" width="18.6640625" style="14" customWidth="1"/>
-    <col min="770" max="781" width="8.6640625" style="14" customWidth="1"/>
-    <col min="782" max="782" width="13.88671875" style="14" customWidth="1"/>
-    <col min="783" max="1024" width="9.109375" style="14"/>
-    <col min="1025" max="1025" width="18.6640625" style="14" customWidth="1"/>
-    <col min="1026" max="1037" width="8.6640625" style="14" customWidth="1"/>
-    <col min="1038" max="1038" width="13.88671875" style="14" customWidth="1"/>
-    <col min="1039" max="1280" width="9.109375" style="14"/>
-    <col min="1281" max="1281" width="18.6640625" style="14" customWidth="1"/>
-    <col min="1282" max="1293" width="8.6640625" style="14" customWidth="1"/>
-    <col min="1294" max="1294" width="13.88671875" style="14" customWidth="1"/>
-    <col min="1295" max="1536" width="9.109375" style="14"/>
-    <col min="1537" max="1537" width="18.6640625" style="14" customWidth="1"/>
-    <col min="1538" max="1549" width="8.6640625" style="14" customWidth="1"/>
-    <col min="1550" max="1550" width="13.88671875" style="14" customWidth="1"/>
-    <col min="1551" max="1792" width="9.109375" style="14"/>
-    <col min="1793" max="1793" width="18.6640625" style="14" customWidth="1"/>
-    <col min="1794" max="1805" width="8.6640625" style="14" customWidth="1"/>
-    <col min="1806" max="1806" width="13.88671875" style="14" customWidth="1"/>
-    <col min="1807" max="2048" width="9.109375" style="14"/>
-    <col min="2049" max="2049" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2050" max="2061" width="8.6640625" style="14" customWidth="1"/>
-    <col min="2062" max="2062" width="13.88671875" style="14" customWidth="1"/>
-    <col min="2063" max="2304" width="9.109375" style="14"/>
-    <col min="2305" max="2305" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2306" max="2317" width="8.6640625" style="14" customWidth="1"/>
-    <col min="2318" max="2318" width="13.88671875" style="14" customWidth="1"/>
-    <col min="2319" max="2560" width="9.109375" style="14"/>
-    <col min="2561" max="2561" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2562" max="2573" width="8.6640625" style="14" customWidth="1"/>
-    <col min="2574" max="2574" width="13.88671875" style="14" customWidth="1"/>
-    <col min="2575" max="2816" width="9.109375" style="14"/>
-    <col min="2817" max="2817" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2818" max="2829" width="8.6640625" style="14" customWidth="1"/>
-    <col min="2830" max="2830" width="13.88671875" style="14" customWidth="1"/>
-    <col min="2831" max="3072" width="9.109375" style="14"/>
-    <col min="3073" max="3073" width="18.6640625" style="14" customWidth="1"/>
-    <col min="3074" max="3085" width="8.6640625" style="14" customWidth="1"/>
-    <col min="3086" max="3086" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3087" max="3328" width="9.109375" style="14"/>
-    <col min="3329" max="3329" width="18.6640625" style="14" customWidth="1"/>
-    <col min="3330" max="3341" width="8.6640625" style="14" customWidth="1"/>
-    <col min="3342" max="3342" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3343" max="3584" width="9.109375" style="14"/>
-    <col min="3585" max="3585" width="18.6640625" style="14" customWidth="1"/>
-    <col min="3586" max="3597" width="8.6640625" style="14" customWidth="1"/>
-    <col min="3598" max="3598" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3599" max="3840" width="9.109375" style="14"/>
-    <col min="3841" max="3841" width="18.6640625" style="14" customWidth="1"/>
-    <col min="3842" max="3853" width="8.6640625" style="14" customWidth="1"/>
-    <col min="3854" max="3854" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3855" max="4096" width="9.109375" style="14"/>
-    <col min="4097" max="4097" width="18.6640625" style="14" customWidth="1"/>
-    <col min="4098" max="4109" width="8.6640625" style="14" customWidth="1"/>
-    <col min="4110" max="4110" width="13.88671875" style="14" customWidth="1"/>
-    <col min="4111" max="4352" width="9.109375" style="14"/>
-    <col min="4353" max="4353" width="18.6640625" style="14" customWidth="1"/>
-    <col min="4354" max="4365" width="8.6640625" style="14" customWidth="1"/>
-    <col min="4366" max="4366" width="13.88671875" style="14" customWidth="1"/>
-    <col min="4367" max="4608" width="9.109375" style="14"/>
-    <col min="4609" max="4609" width="18.6640625" style="14" customWidth="1"/>
-    <col min="4610" max="4621" width="8.6640625" style="14" customWidth="1"/>
-    <col min="4622" max="4622" width="13.88671875" style="14" customWidth="1"/>
-    <col min="4623" max="4864" width="9.109375" style="14"/>
-    <col min="4865" max="4865" width="18.6640625" style="14" customWidth="1"/>
-    <col min="4866" max="4877" width="8.6640625" style="14" customWidth="1"/>
-    <col min="4878" max="4878" width="13.88671875" style="14" customWidth="1"/>
-    <col min="4879" max="5120" width="9.109375" style="14"/>
-    <col min="5121" max="5121" width="18.6640625" style="14" customWidth="1"/>
-    <col min="5122" max="5133" width="8.6640625" style="14" customWidth="1"/>
-    <col min="5134" max="5134" width="13.88671875" style="14" customWidth="1"/>
-    <col min="5135" max="5376" width="9.109375" style="14"/>
-    <col min="5377" max="5377" width="18.6640625" style="14" customWidth="1"/>
-    <col min="5378" max="5389" width="8.6640625" style="14" customWidth="1"/>
-    <col min="5390" max="5390" width="13.88671875" style="14" customWidth="1"/>
-    <col min="5391" max="5632" width="9.109375" style="14"/>
-    <col min="5633" max="5633" width="18.6640625" style="14" customWidth="1"/>
-    <col min="5634" max="5645" width="8.6640625" style="14" customWidth="1"/>
-    <col min="5646" max="5646" width="13.88671875" style="14" customWidth="1"/>
-    <col min="5647" max="5888" width="9.109375" style="14"/>
-    <col min="5889" max="5889" width="18.6640625" style="14" customWidth="1"/>
-    <col min="5890" max="5901" width="8.6640625" style="14" customWidth="1"/>
-    <col min="5902" max="5902" width="13.88671875" style="14" customWidth="1"/>
-    <col min="5903" max="6144" width="9.109375" style="14"/>
-    <col min="6145" max="6145" width="18.6640625" style="14" customWidth="1"/>
-    <col min="6146" max="6157" width="8.6640625" style="14" customWidth="1"/>
-    <col min="6158" max="6158" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6159" max="6400" width="9.109375" style="14"/>
-    <col min="6401" max="6401" width="18.6640625" style="14" customWidth="1"/>
-    <col min="6402" max="6413" width="8.6640625" style="14" customWidth="1"/>
-    <col min="6414" max="6414" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6415" max="6656" width="9.109375" style="14"/>
-    <col min="6657" max="6657" width="18.6640625" style="14" customWidth="1"/>
-    <col min="6658" max="6669" width="8.6640625" style="14" customWidth="1"/>
-    <col min="6670" max="6670" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6671" max="6912" width="9.109375" style="14"/>
-    <col min="6913" max="6913" width="18.6640625" style="14" customWidth="1"/>
-    <col min="6914" max="6925" width="8.6640625" style="14" customWidth="1"/>
-    <col min="6926" max="6926" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6927" max="7168" width="9.109375" style="14"/>
-    <col min="7169" max="7169" width="18.6640625" style="14" customWidth="1"/>
-    <col min="7170" max="7181" width="8.6640625" style="14" customWidth="1"/>
-    <col min="7182" max="7182" width="13.88671875" style="14" customWidth="1"/>
-    <col min="7183" max="7424" width="9.109375" style="14"/>
-    <col min="7425" max="7425" width="18.6640625" style="14" customWidth="1"/>
-    <col min="7426" max="7437" width="8.6640625" style="14" customWidth="1"/>
-    <col min="7438" max="7438" width="13.88671875" style="14" customWidth="1"/>
-    <col min="7439" max="7680" width="9.109375" style="14"/>
-    <col min="7681" max="7681" width="18.6640625" style="14" customWidth="1"/>
-    <col min="7682" max="7693" width="8.6640625" style="14" customWidth="1"/>
-    <col min="7694" max="7694" width="13.88671875" style="14" customWidth="1"/>
-    <col min="7695" max="7936" width="9.109375" style="14"/>
-    <col min="7937" max="7937" width="18.6640625" style="14" customWidth="1"/>
-    <col min="7938" max="7949" width="8.6640625" style="14" customWidth="1"/>
-    <col min="7950" max="7950" width="13.88671875" style="14" customWidth="1"/>
-    <col min="7951" max="8192" width="9.109375" style="14"/>
-    <col min="8193" max="8193" width="18.6640625" style="14" customWidth="1"/>
-    <col min="8194" max="8205" width="8.6640625" style="14" customWidth="1"/>
-    <col min="8206" max="8206" width="13.88671875" style="14" customWidth="1"/>
-    <col min="8207" max="8448" width="9.109375" style="14"/>
-    <col min="8449" max="8449" width="18.6640625" style="14" customWidth="1"/>
-    <col min="8450" max="8461" width="8.6640625" style="14" customWidth="1"/>
-    <col min="8462" max="8462" width="13.88671875" style="14" customWidth="1"/>
-    <col min="8463" max="8704" width="9.109375" style="14"/>
-    <col min="8705" max="8705" width="18.6640625" style="14" customWidth="1"/>
-    <col min="8706" max="8717" width="8.6640625" style="14" customWidth="1"/>
-    <col min="8718" max="8718" width="13.88671875" style="14" customWidth="1"/>
-    <col min="8719" max="8960" width="9.109375" style="14"/>
-    <col min="8961" max="8961" width="18.6640625" style="14" customWidth="1"/>
-    <col min="8962" max="8973" width="8.6640625" style="14" customWidth="1"/>
-    <col min="8974" max="8974" width="13.88671875" style="14" customWidth="1"/>
-    <col min="8975" max="9216" width="9.109375" style="14"/>
-    <col min="9217" max="9217" width="18.6640625" style="14" customWidth="1"/>
-    <col min="9218" max="9229" width="8.6640625" style="14" customWidth="1"/>
-    <col min="9230" max="9230" width="13.88671875" style="14" customWidth="1"/>
-    <col min="9231" max="9472" width="9.109375" style="14"/>
-    <col min="9473" max="9473" width="18.6640625" style="14" customWidth="1"/>
-    <col min="9474" max="9485" width="8.6640625" style="14" customWidth="1"/>
-    <col min="9486" max="9486" width="13.88671875" style="14" customWidth="1"/>
-    <col min="9487" max="9728" width="9.109375" style="14"/>
-    <col min="9729" max="9729" width="18.6640625" style="14" customWidth="1"/>
-    <col min="9730" max="9741" width="8.6640625" style="14" customWidth="1"/>
-    <col min="9742" max="9742" width="13.88671875" style="14" customWidth="1"/>
-    <col min="9743" max="9984" width="9.109375" style="14"/>
-    <col min="9985" max="9985" width="18.6640625" style="14" customWidth="1"/>
-    <col min="9986" max="9997" width="8.6640625" style="14" customWidth="1"/>
-    <col min="9998" max="9998" width="13.88671875" style="14" customWidth="1"/>
-    <col min="9999" max="10240" width="9.109375" style="14"/>
-    <col min="10241" max="10241" width="18.6640625" style="14" customWidth="1"/>
-    <col min="10242" max="10253" width="8.6640625" style="14" customWidth="1"/>
-    <col min="10254" max="10254" width="13.88671875" style="14" customWidth="1"/>
-    <col min="10255" max="10496" width="9.109375" style="14"/>
-    <col min="10497" max="10497" width="18.6640625" style="14" customWidth="1"/>
-    <col min="10498" max="10509" width="8.6640625" style="14" customWidth="1"/>
-    <col min="10510" max="10510" width="13.88671875" style="14" customWidth="1"/>
-    <col min="10511" max="10752" width="9.109375" style="14"/>
-    <col min="10753" max="10753" width="18.6640625" style="14" customWidth="1"/>
-    <col min="10754" max="10765" width="8.6640625" style="14" customWidth="1"/>
-    <col min="10766" max="10766" width="13.88671875" style="14" customWidth="1"/>
-    <col min="10767" max="11008" width="9.109375" style="14"/>
-    <col min="11009" max="11009" width="18.6640625" style="14" customWidth="1"/>
-    <col min="11010" max="11021" width="8.6640625" style="14" customWidth="1"/>
-    <col min="11022" max="11022" width="13.88671875" style="14" customWidth="1"/>
-    <col min="11023" max="11264" width="9.109375" style="14"/>
-    <col min="11265" max="11265" width="18.6640625" style="14" customWidth="1"/>
-    <col min="11266" max="11277" width="8.6640625" style="14" customWidth="1"/>
-    <col min="11278" max="11278" width="13.88671875" style="14" customWidth="1"/>
-    <col min="11279" max="11520" width="9.109375" style="14"/>
-    <col min="11521" max="11521" width="18.6640625" style="14" customWidth="1"/>
-    <col min="11522" max="11533" width="8.6640625" style="14" customWidth="1"/>
-    <col min="11534" max="11534" width="13.88671875" style="14" customWidth="1"/>
-    <col min="11535" max="11776" width="9.109375" style="14"/>
-    <col min="11777" max="11777" width="18.6640625" style="14" customWidth="1"/>
-    <col min="11778" max="11789" width="8.6640625" style="14" customWidth="1"/>
-    <col min="11790" max="11790" width="13.88671875" style="14" customWidth="1"/>
-    <col min="11791" max="12032" width="9.109375" style="14"/>
-    <col min="12033" max="12033" width="18.6640625" style="14" customWidth="1"/>
-    <col min="12034" max="12045" width="8.6640625" style="14" customWidth="1"/>
-    <col min="12046" max="12046" width="13.88671875" style="14" customWidth="1"/>
-    <col min="12047" max="12288" width="9.109375" style="14"/>
-    <col min="12289" max="12289" width="18.6640625" style="14" customWidth="1"/>
-    <col min="12290" max="12301" width="8.6640625" style="14" customWidth="1"/>
-    <col min="12302" max="12302" width="13.88671875" style="14" customWidth="1"/>
-    <col min="12303" max="12544" width="9.109375" style="14"/>
-    <col min="12545" max="12545" width="18.6640625" style="14" customWidth="1"/>
-    <col min="12546" max="12557" width="8.6640625" style="14" customWidth="1"/>
-    <col min="12558" max="12558" width="13.88671875" style="14" customWidth="1"/>
-    <col min="12559" max="12800" width="9.109375" style="14"/>
-    <col min="12801" max="12801" width="18.6640625" style="14" customWidth="1"/>
-    <col min="12802" max="12813" width="8.6640625" style="14" customWidth="1"/>
-    <col min="12814" max="12814" width="13.88671875" style="14" customWidth="1"/>
-    <col min="12815" max="13056" width="9.109375" style="14"/>
-    <col min="13057" max="13057" width="18.6640625" style="14" customWidth="1"/>
-    <col min="13058" max="13069" width="8.6640625" style="14" customWidth="1"/>
-    <col min="13070" max="13070" width="13.88671875" style="14" customWidth="1"/>
-    <col min="13071" max="13312" width="9.109375" style="14"/>
-    <col min="13313" max="13313" width="18.6640625" style="14" customWidth="1"/>
-    <col min="13314" max="13325" width="8.6640625" style="14" customWidth="1"/>
-    <col min="13326" max="13326" width="13.88671875" style="14" customWidth="1"/>
-    <col min="13327" max="13568" width="9.109375" style="14"/>
-    <col min="13569" max="13569" width="18.6640625" style="14" customWidth="1"/>
-    <col min="13570" max="13581" width="8.6640625" style="14" customWidth="1"/>
-    <col min="13582" max="13582" width="13.88671875" style="14" customWidth="1"/>
-    <col min="13583" max="13824" width="9.109375" style="14"/>
-    <col min="13825" max="13825" width="18.6640625" style="14" customWidth="1"/>
-    <col min="13826" max="13837" width="8.6640625" style="14" customWidth="1"/>
-    <col min="13838" max="13838" width="13.88671875" style="14" customWidth="1"/>
-    <col min="13839" max="14080" width="9.109375" style="14"/>
-    <col min="14081" max="14081" width="18.6640625" style="14" customWidth="1"/>
-    <col min="14082" max="14093" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14094" max="14094" width="13.88671875" style="14" customWidth="1"/>
-    <col min="14095" max="14336" width="9.109375" style="14"/>
-    <col min="14337" max="14337" width="18.6640625" style="14" customWidth="1"/>
-    <col min="14338" max="14349" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14350" max="14350" width="13.88671875" style="14" customWidth="1"/>
-    <col min="14351" max="14592" width="9.109375" style="14"/>
-    <col min="14593" max="14593" width="18.6640625" style="14" customWidth="1"/>
-    <col min="14594" max="14605" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14606" max="14606" width="13.88671875" style="14" customWidth="1"/>
-    <col min="14607" max="14848" width="9.109375" style="14"/>
-    <col min="14849" max="14849" width="18.6640625" style="14" customWidth="1"/>
-    <col min="14850" max="14861" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14862" max="14862" width="13.88671875" style="14" customWidth="1"/>
-    <col min="14863" max="15104" width="9.109375" style="14"/>
-    <col min="15105" max="15105" width="18.6640625" style="14" customWidth="1"/>
-    <col min="15106" max="15117" width="8.6640625" style="14" customWidth="1"/>
-    <col min="15118" max="15118" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15119" max="15360" width="9.109375" style="14"/>
-    <col min="15361" max="15361" width="18.6640625" style="14" customWidth="1"/>
-    <col min="15362" max="15373" width="8.6640625" style="14" customWidth="1"/>
-    <col min="15374" max="15374" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15375" max="15616" width="9.109375" style="14"/>
-    <col min="15617" max="15617" width="18.6640625" style="14" customWidth="1"/>
-    <col min="15618" max="15629" width="8.6640625" style="14" customWidth="1"/>
-    <col min="15630" max="15630" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15631" max="15872" width="9.109375" style="14"/>
-    <col min="15873" max="15873" width="18.6640625" style="14" customWidth="1"/>
-    <col min="15874" max="15885" width="8.6640625" style="14" customWidth="1"/>
-    <col min="15886" max="15886" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15887" max="16128" width="9.109375" style="14"/>
-    <col min="16129" max="16129" width="18.6640625" style="14" customWidth="1"/>
-    <col min="16130" max="16141" width="8.6640625" style="14" customWidth="1"/>
-    <col min="16142" max="16142" width="13.88671875" style="14" customWidth="1"/>
-    <col min="16143" max="16384" width="9.109375" style="14"/>
+    <col min="1" max="1" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="14" customWidth="1"/>
+    <col min="6" max="13" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15" max="256" width="9.140625" style="14"/>
+    <col min="257" max="257" width="18.7109375" style="14" customWidth="1"/>
+    <col min="258" max="269" width="8.7109375" style="14" customWidth="1"/>
+    <col min="270" max="270" width="13.85546875" style="14" customWidth="1"/>
+    <col min="271" max="512" width="9.140625" style="14"/>
+    <col min="513" max="513" width="18.7109375" style="14" customWidth="1"/>
+    <col min="514" max="525" width="8.7109375" style="14" customWidth="1"/>
+    <col min="526" max="526" width="13.85546875" style="14" customWidth="1"/>
+    <col min="527" max="768" width="9.140625" style="14"/>
+    <col min="769" max="769" width="18.7109375" style="14" customWidth="1"/>
+    <col min="770" max="781" width="8.7109375" style="14" customWidth="1"/>
+    <col min="782" max="782" width="13.85546875" style="14" customWidth="1"/>
+    <col min="783" max="1024" width="9.140625" style="14"/>
+    <col min="1025" max="1025" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1026" max="1037" width="8.7109375" style="14" customWidth="1"/>
+    <col min="1038" max="1038" width="13.85546875" style="14" customWidth="1"/>
+    <col min="1039" max="1280" width="9.140625" style="14"/>
+    <col min="1281" max="1281" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1282" max="1293" width="8.7109375" style="14" customWidth="1"/>
+    <col min="1294" max="1294" width="13.85546875" style="14" customWidth="1"/>
+    <col min="1295" max="1536" width="9.140625" style="14"/>
+    <col min="1537" max="1537" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1538" max="1549" width="8.7109375" style="14" customWidth="1"/>
+    <col min="1550" max="1550" width="13.85546875" style="14" customWidth="1"/>
+    <col min="1551" max="1792" width="9.140625" style="14"/>
+    <col min="1793" max="1793" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1794" max="1805" width="8.7109375" style="14" customWidth="1"/>
+    <col min="1806" max="1806" width="13.85546875" style="14" customWidth="1"/>
+    <col min="1807" max="2048" width="9.140625" style="14"/>
+    <col min="2049" max="2049" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2050" max="2061" width="8.7109375" style="14" customWidth="1"/>
+    <col min="2062" max="2062" width="13.85546875" style="14" customWidth="1"/>
+    <col min="2063" max="2304" width="9.140625" style="14"/>
+    <col min="2305" max="2305" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2306" max="2317" width="8.7109375" style="14" customWidth="1"/>
+    <col min="2318" max="2318" width="13.85546875" style="14" customWidth="1"/>
+    <col min="2319" max="2560" width="9.140625" style="14"/>
+    <col min="2561" max="2561" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2562" max="2573" width="8.7109375" style="14" customWidth="1"/>
+    <col min="2574" max="2574" width="13.85546875" style="14" customWidth="1"/>
+    <col min="2575" max="2816" width="9.140625" style="14"/>
+    <col min="2817" max="2817" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2818" max="2829" width="8.7109375" style="14" customWidth="1"/>
+    <col min="2830" max="2830" width="13.85546875" style="14" customWidth="1"/>
+    <col min="2831" max="3072" width="9.140625" style="14"/>
+    <col min="3073" max="3073" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3074" max="3085" width="8.7109375" style="14" customWidth="1"/>
+    <col min="3086" max="3086" width="13.85546875" style="14" customWidth="1"/>
+    <col min="3087" max="3328" width="9.140625" style="14"/>
+    <col min="3329" max="3329" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3330" max="3341" width="8.7109375" style="14" customWidth="1"/>
+    <col min="3342" max="3342" width="13.85546875" style="14" customWidth="1"/>
+    <col min="3343" max="3584" width="9.140625" style="14"/>
+    <col min="3585" max="3585" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3586" max="3597" width="8.7109375" style="14" customWidth="1"/>
+    <col min="3598" max="3598" width="13.85546875" style="14" customWidth="1"/>
+    <col min="3599" max="3840" width="9.140625" style="14"/>
+    <col min="3841" max="3841" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3842" max="3853" width="8.7109375" style="14" customWidth="1"/>
+    <col min="3854" max="3854" width="13.85546875" style="14" customWidth="1"/>
+    <col min="3855" max="4096" width="9.140625" style="14"/>
+    <col min="4097" max="4097" width="18.7109375" style="14" customWidth="1"/>
+    <col min="4098" max="4109" width="8.7109375" style="14" customWidth="1"/>
+    <col min="4110" max="4110" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4111" max="4352" width="9.140625" style="14"/>
+    <col min="4353" max="4353" width="18.7109375" style="14" customWidth="1"/>
+    <col min="4354" max="4365" width="8.7109375" style="14" customWidth="1"/>
+    <col min="4366" max="4366" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4367" max="4608" width="9.140625" style="14"/>
+    <col min="4609" max="4609" width="18.7109375" style="14" customWidth="1"/>
+    <col min="4610" max="4621" width="8.7109375" style="14" customWidth="1"/>
+    <col min="4622" max="4622" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4623" max="4864" width="9.140625" style="14"/>
+    <col min="4865" max="4865" width="18.7109375" style="14" customWidth="1"/>
+    <col min="4866" max="4877" width="8.7109375" style="14" customWidth="1"/>
+    <col min="4878" max="4878" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4879" max="5120" width="9.140625" style="14"/>
+    <col min="5121" max="5121" width="18.7109375" style="14" customWidth="1"/>
+    <col min="5122" max="5133" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5134" max="5134" width="13.85546875" style="14" customWidth="1"/>
+    <col min="5135" max="5376" width="9.140625" style="14"/>
+    <col min="5377" max="5377" width="18.7109375" style="14" customWidth="1"/>
+    <col min="5378" max="5389" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5390" max="5390" width="13.85546875" style="14" customWidth="1"/>
+    <col min="5391" max="5632" width="9.140625" style="14"/>
+    <col min="5633" max="5633" width="18.7109375" style="14" customWidth="1"/>
+    <col min="5634" max="5645" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5646" max="5646" width="13.85546875" style="14" customWidth="1"/>
+    <col min="5647" max="5888" width="9.140625" style="14"/>
+    <col min="5889" max="5889" width="18.7109375" style="14" customWidth="1"/>
+    <col min="5890" max="5901" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5902" max="5902" width="13.85546875" style="14" customWidth="1"/>
+    <col min="5903" max="6144" width="9.140625" style="14"/>
+    <col min="6145" max="6145" width="18.7109375" style="14" customWidth="1"/>
+    <col min="6146" max="6157" width="8.7109375" style="14" customWidth="1"/>
+    <col min="6158" max="6158" width="13.85546875" style="14" customWidth="1"/>
+    <col min="6159" max="6400" width="9.140625" style="14"/>
+    <col min="6401" max="6401" width="18.7109375" style="14" customWidth="1"/>
+    <col min="6402" max="6413" width="8.7109375" style="14" customWidth="1"/>
+    <col min="6414" max="6414" width="13.85546875" style="14" customWidth="1"/>
+    <col min="6415" max="6656" width="9.140625" style="14"/>
+    <col min="6657" max="6657" width="18.7109375" style="14" customWidth="1"/>
+    <col min="6658" max="6669" width="8.7109375" style="14" customWidth="1"/>
+    <col min="6670" max="6670" width="13.85546875" style="14" customWidth="1"/>
+    <col min="6671" max="6912" width="9.140625" style="14"/>
+    <col min="6913" max="6913" width="18.7109375" style="14" customWidth="1"/>
+    <col min="6914" max="6925" width="8.7109375" style="14" customWidth="1"/>
+    <col min="6926" max="6926" width="13.85546875" style="14" customWidth="1"/>
+    <col min="6927" max="7168" width="9.140625" style="14"/>
+    <col min="7169" max="7169" width="18.7109375" style="14" customWidth="1"/>
+    <col min="7170" max="7181" width="8.7109375" style="14" customWidth="1"/>
+    <col min="7182" max="7182" width="13.85546875" style="14" customWidth="1"/>
+    <col min="7183" max="7424" width="9.140625" style="14"/>
+    <col min="7425" max="7425" width="18.7109375" style="14" customWidth="1"/>
+    <col min="7426" max="7437" width="8.7109375" style="14" customWidth="1"/>
+    <col min="7438" max="7438" width="13.85546875" style="14" customWidth="1"/>
+    <col min="7439" max="7680" width="9.140625" style="14"/>
+    <col min="7681" max="7681" width="18.7109375" style="14" customWidth="1"/>
+    <col min="7682" max="7693" width="8.7109375" style="14" customWidth="1"/>
+    <col min="7694" max="7694" width="13.85546875" style="14" customWidth="1"/>
+    <col min="7695" max="7936" width="9.140625" style="14"/>
+    <col min="7937" max="7937" width="18.7109375" style="14" customWidth="1"/>
+    <col min="7938" max="7949" width="8.7109375" style="14" customWidth="1"/>
+    <col min="7950" max="7950" width="13.85546875" style="14" customWidth="1"/>
+    <col min="7951" max="8192" width="9.140625" style="14"/>
+    <col min="8193" max="8193" width="18.7109375" style="14" customWidth="1"/>
+    <col min="8194" max="8205" width="8.7109375" style="14" customWidth="1"/>
+    <col min="8206" max="8206" width="13.85546875" style="14" customWidth="1"/>
+    <col min="8207" max="8448" width="9.140625" style="14"/>
+    <col min="8449" max="8449" width="18.7109375" style="14" customWidth="1"/>
+    <col min="8450" max="8461" width="8.7109375" style="14" customWidth="1"/>
+    <col min="8462" max="8462" width="13.85546875" style="14" customWidth="1"/>
+    <col min="8463" max="8704" width="9.140625" style="14"/>
+    <col min="8705" max="8705" width="18.7109375" style="14" customWidth="1"/>
+    <col min="8706" max="8717" width="8.7109375" style="14" customWidth="1"/>
+    <col min="8718" max="8718" width="13.85546875" style="14" customWidth="1"/>
+    <col min="8719" max="8960" width="9.140625" style="14"/>
+    <col min="8961" max="8961" width="18.7109375" style="14" customWidth="1"/>
+    <col min="8962" max="8973" width="8.7109375" style="14" customWidth="1"/>
+    <col min="8974" max="8974" width="13.85546875" style="14" customWidth="1"/>
+    <col min="8975" max="9216" width="9.140625" style="14"/>
+    <col min="9217" max="9217" width="18.7109375" style="14" customWidth="1"/>
+    <col min="9218" max="9229" width="8.7109375" style="14" customWidth="1"/>
+    <col min="9230" max="9230" width="13.85546875" style="14" customWidth="1"/>
+    <col min="9231" max="9472" width="9.140625" style="14"/>
+    <col min="9473" max="9473" width="18.7109375" style="14" customWidth="1"/>
+    <col min="9474" max="9485" width="8.7109375" style="14" customWidth="1"/>
+    <col min="9486" max="9486" width="13.85546875" style="14" customWidth="1"/>
+    <col min="9487" max="9728" width="9.140625" style="14"/>
+    <col min="9729" max="9729" width="18.7109375" style="14" customWidth="1"/>
+    <col min="9730" max="9741" width="8.7109375" style="14" customWidth="1"/>
+    <col min="9742" max="9742" width="13.85546875" style="14" customWidth="1"/>
+    <col min="9743" max="9984" width="9.140625" style="14"/>
+    <col min="9985" max="9985" width="18.7109375" style="14" customWidth="1"/>
+    <col min="9986" max="9997" width="8.7109375" style="14" customWidth="1"/>
+    <col min="9998" max="9998" width="13.85546875" style="14" customWidth="1"/>
+    <col min="9999" max="10240" width="9.140625" style="14"/>
+    <col min="10241" max="10241" width="18.7109375" style="14" customWidth="1"/>
+    <col min="10242" max="10253" width="8.7109375" style="14" customWidth="1"/>
+    <col min="10254" max="10254" width="13.85546875" style="14" customWidth="1"/>
+    <col min="10255" max="10496" width="9.140625" style="14"/>
+    <col min="10497" max="10497" width="18.7109375" style="14" customWidth="1"/>
+    <col min="10498" max="10509" width="8.7109375" style="14" customWidth="1"/>
+    <col min="10510" max="10510" width="13.85546875" style="14" customWidth="1"/>
+    <col min="10511" max="10752" width="9.140625" style="14"/>
+    <col min="10753" max="10753" width="18.7109375" style="14" customWidth="1"/>
+    <col min="10754" max="10765" width="8.7109375" style="14" customWidth="1"/>
+    <col min="10766" max="10766" width="13.85546875" style="14" customWidth="1"/>
+    <col min="10767" max="11008" width="9.140625" style="14"/>
+    <col min="11009" max="11009" width="18.7109375" style="14" customWidth="1"/>
+    <col min="11010" max="11021" width="8.7109375" style="14" customWidth="1"/>
+    <col min="11022" max="11022" width="13.85546875" style="14" customWidth="1"/>
+    <col min="11023" max="11264" width="9.140625" style="14"/>
+    <col min="11265" max="11265" width="18.7109375" style="14" customWidth="1"/>
+    <col min="11266" max="11277" width="8.7109375" style="14" customWidth="1"/>
+    <col min="11278" max="11278" width="13.85546875" style="14" customWidth="1"/>
+    <col min="11279" max="11520" width="9.140625" style="14"/>
+    <col min="11521" max="11521" width="18.7109375" style="14" customWidth="1"/>
+    <col min="11522" max="11533" width="8.7109375" style="14" customWidth="1"/>
+    <col min="11534" max="11534" width="13.85546875" style="14" customWidth="1"/>
+    <col min="11535" max="11776" width="9.140625" style="14"/>
+    <col min="11777" max="11777" width="18.7109375" style="14" customWidth="1"/>
+    <col min="11778" max="11789" width="8.7109375" style="14" customWidth="1"/>
+    <col min="11790" max="11790" width="13.85546875" style="14" customWidth="1"/>
+    <col min="11791" max="12032" width="9.140625" style="14"/>
+    <col min="12033" max="12033" width="18.7109375" style="14" customWidth="1"/>
+    <col min="12034" max="12045" width="8.7109375" style="14" customWidth="1"/>
+    <col min="12046" max="12046" width="13.85546875" style="14" customWidth="1"/>
+    <col min="12047" max="12288" width="9.140625" style="14"/>
+    <col min="12289" max="12289" width="18.7109375" style="14" customWidth="1"/>
+    <col min="12290" max="12301" width="8.7109375" style="14" customWidth="1"/>
+    <col min="12302" max="12302" width="13.85546875" style="14" customWidth="1"/>
+    <col min="12303" max="12544" width="9.140625" style="14"/>
+    <col min="12545" max="12545" width="18.7109375" style="14" customWidth="1"/>
+    <col min="12546" max="12557" width="8.7109375" style="14" customWidth="1"/>
+    <col min="12558" max="12558" width="13.85546875" style="14" customWidth="1"/>
+    <col min="12559" max="12800" width="9.140625" style="14"/>
+    <col min="12801" max="12801" width="18.7109375" style="14" customWidth="1"/>
+    <col min="12802" max="12813" width="8.7109375" style="14" customWidth="1"/>
+    <col min="12814" max="12814" width="13.85546875" style="14" customWidth="1"/>
+    <col min="12815" max="13056" width="9.140625" style="14"/>
+    <col min="13057" max="13057" width="18.7109375" style="14" customWidth="1"/>
+    <col min="13058" max="13069" width="8.7109375" style="14" customWidth="1"/>
+    <col min="13070" max="13070" width="13.85546875" style="14" customWidth="1"/>
+    <col min="13071" max="13312" width="9.140625" style="14"/>
+    <col min="13313" max="13313" width="18.7109375" style="14" customWidth="1"/>
+    <col min="13314" max="13325" width="8.7109375" style="14" customWidth="1"/>
+    <col min="13326" max="13326" width="13.85546875" style="14" customWidth="1"/>
+    <col min="13327" max="13568" width="9.140625" style="14"/>
+    <col min="13569" max="13569" width="18.7109375" style="14" customWidth="1"/>
+    <col min="13570" max="13581" width="8.7109375" style="14" customWidth="1"/>
+    <col min="13582" max="13582" width="13.85546875" style="14" customWidth="1"/>
+    <col min="13583" max="13824" width="9.140625" style="14"/>
+    <col min="13825" max="13825" width="18.7109375" style="14" customWidth="1"/>
+    <col min="13826" max="13837" width="8.7109375" style="14" customWidth="1"/>
+    <col min="13838" max="13838" width="13.85546875" style="14" customWidth="1"/>
+    <col min="13839" max="14080" width="9.140625" style="14"/>
+    <col min="14081" max="14081" width="18.7109375" style="14" customWidth="1"/>
+    <col min="14082" max="14093" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14094" max="14094" width="13.85546875" style="14" customWidth="1"/>
+    <col min="14095" max="14336" width="9.140625" style="14"/>
+    <col min="14337" max="14337" width="18.7109375" style="14" customWidth="1"/>
+    <col min="14338" max="14349" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14350" max="14350" width="13.85546875" style="14" customWidth="1"/>
+    <col min="14351" max="14592" width="9.140625" style="14"/>
+    <col min="14593" max="14593" width="18.7109375" style="14" customWidth="1"/>
+    <col min="14594" max="14605" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14606" max="14606" width="13.85546875" style="14" customWidth="1"/>
+    <col min="14607" max="14848" width="9.140625" style="14"/>
+    <col min="14849" max="14849" width="18.7109375" style="14" customWidth="1"/>
+    <col min="14850" max="14861" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14862" max="14862" width="13.85546875" style="14" customWidth="1"/>
+    <col min="14863" max="15104" width="9.140625" style="14"/>
+    <col min="15105" max="15105" width="18.7109375" style="14" customWidth="1"/>
+    <col min="15106" max="15117" width="8.7109375" style="14" customWidth="1"/>
+    <col min="15118" max="15118" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15119" max="15360" width="9.140625" style="14"/>
+    <col min="15361" max="15361" width="18.7109375" style="14" customWidth="1"/>
+    <col min="15362" max="15373" width="8.7109375" style="14" customWidth="1"/>
+    <col min="15374" max="15374" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15375" max="15616" width="9.140625" style="14"/>
+    <col min="15617" max="15617" width="18.7109375" style="14" customWidth="1"/>
+    <col min="15618" max="15629" width="8.7109375" style="14" customWidth="1"/>
+    <col min="15630" max="15630" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15631" max="15872" width="9.140625" style="14"/>
+    <col min="15873" max="15873" width="18.7109375" style="14" customWidth="1"/>
+    <col min="15874" max="15885" width="8.7109375" style="14" customWidth="1"/>
+    <col min="15886" max="15886" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15887" max="16128" width="9.140625" style="14"/>
+    <col min="16129" max="16129" width="18.7109375" style="14" customWidth="1"/>
+    <col min="16130" max="16141" width="8.7109375" style="14" customWidth="1"/>
+    <col min="16142" max="16142" width="13.85546875" style="14" customWidth="1"/>
+    <col min="16143" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>63</v>
       </c>
@@ -3027,7 +2987,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>21</v>
       </c>
@@ -3049,7 +3009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="15" t="s">
         <v>23</v>
@@ -3089,7 +3049,7 @@
       </c>
       <c r="N3" s="25"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>35</v>
       </c>
@@ -3133,7 +3093,7 @@
         <v>171.28994544648052</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>36</v>
       </c>
@@ -3177,7 +3137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>37</v>
       </c>
@@ -3221,7 +3181,7 @@
         <v>107.14143167893991</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>38</v>
       </c>
@@ -3265,7 +3225,7 @@
         <v>4.1338601601630467</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>39</v>
       </c>
@@ -3309,7 +3269,7 @@
         <v>107.44416691513958</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
@@ -3353,7 +3313,7 @@
         <v>108.18405994820702</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>41</v>
       </c>
@@ -3397,7 +3357,7 @@
         <v>522.22624499198321</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>42</v>
       </c>
@@ -3441,7 +3401,7 @@
         <v>6.5248337559887233</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>43</v>
       </c>
@@ -3485,7 +3445,7 @@
         <v>208.02917847169937</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>44</v>
       </c>
@@ -3529,7 +3489,7 @@
         <v>24.205933062623068</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>45</v>
       </c>
@@ -3573,7 +3533,7 @@
         <v>180.39345384706883</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>46</v>
       </c>
@@ -3617,7 +3577,7 @@
         <v>408.14482982331515</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>47</v>
       </c>
@@ -3661,7 +3621,7 @@
         <v>53.079274980433787</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
@@ -3705,7 +3665,7 @@
         <v>261.96411964774558</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>49</v>
       </c>
@@ -3749,7 +3709,7 @@
         <v>162.93881114824595</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
@@ -3793,7 +3753,7 @@
         <v>301.00000754596118</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>51</v>
       </c>
@@ -3837,7 +3797,7 @@
         <v>93.259697030886031</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>52</v>
       </c>
@@ -3881,7 +3841,7 @@
         <v>556.24946663666901</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
@@ -3925,7 +3885,7 @@
         <v>348.71608267871028</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>54</v>
       </c>
@@ -3969,7 +3929,7 @@
         <v>41.999278137407011</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>55</v>
       </c>
@@ -4013,7 +3973,7 @@
         <v>25.960482621942464</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>56</v>
       </c>
@@ -4057,7 +4017,7 @@
         <v>66.576397823045568</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>57</v>
       </c>
@@ -4101,7 +4061,7 @@
         <v>152.91827384928035</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>58</v>
       </c>
@@ -4145,7 +4105,7 @@
         <v>198.28759632971662</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>59</v>
       </c>
@@ -4189,7 +4149,7 @@
         <v>53.478884110706801</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>60</v>
       </c>
@@ -4233,7 +4193,7 @@
         <v>456.96288239007345</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>61</v>
       </c>
@@ -4277,7 +4237,7 @@
         <v>191.17093780199792</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>62</v>
       </c>
@@ -4321,139 +4281,139 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
     </row>
   </sheetData>
@@ -4468,274 +4428,274 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2" max="13" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15" max="256" width="9.109375" style="14"/>
-    <col min="257" max="257" width="18.6640625" style="14" customWidth="1"/>
-    <col min="258" max="269" width="8.6640625" style="14" customWidth="1"/>
-    <col min="270" max="270" width="13.88671875" style="14" customWidth="1"/>
-    <col min="271" max="512" width="9.109375" style="14"/>
-    <col min="513" max="513" width="18.6640625" style="14" customWidth="1"/>
-    <col min="514" max="525" width="8.6640625" style="14" customWidth="1"/>
-    <col min="526" max="526" width="13.88671875" style="14" customWidth="1"/>
-    <col min="527" max="768" width="9.109375" style="14"/>
-    <col min="769" max="769" width="18.6640625" style="14" customWidth="1"/>
-    <col min="770" max="781" width="8.6640625" style="14" customWidth="1"/>
-    <col min="782" max="782" width="13.88671875" style="14" customWidth="1"/>
-    <col min="783" max="1024" width="9.109375" style="14"/>
-    <col min="1025" max="1025" width="18.6640625" style="14" customWidth="1"/>
-    <col min="1026" max="1037" width="8.6640625" style="14" customWidth="1"/>
-    <col min="1038" max="1038" width="13.88671875" style="14" customWidth="1"/>
-    <col min="1039" max="1280" width="9.109375" style="14"/>
-    <col min="1281" max="1281" width="18.6640625" style="14" customWidth="1"/>
-    <col min="1282" max="1293" width="8.6640625" style="14" customWidth="1"/>
-    <col min="1294" max="1294" width="13.88671875" style="14" customWidth="1"/>
-    <col min="1295" max="1536" width="9.109375" style="14"/>
-    <col min="1537" max="1537" width="18.6640625" style="14" customWidth="1"/>
-    <col min="1538" max="1549" width="8.6640625" style="14" customWidth="1"/>
-    <col min="1550" max="1550" width="13.88671875" style="14" customWidth="1"/>
-    <col min="1551" max="1792" width="9.109375" style="14"/>
-    <col min="1793" max="1793" width="18.6640625" style="14" customWidth="1"/>
-    <col min="1794" max="1805" width="8.6640625" style="14" customWidth="1"/>
-    <col min="1806" max="1806" width="13.88671875" style="14" customWidth="1"/>
-    <col min="1807" max="2048" width="9.109375" style="14"/>
-    <col min="2049" max="2049" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2050" max="2061" width="8.6640625" style="14" customWidth="1"/>
-    <col min="2062" max="2062" width="13.88671875" style="14" customWidth="1"/>
-    <col min="2063" max="2304" width="9.109375" style="14"/>
-    <col min="2305" max="2305" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2306" max="2317" width="8.6640625" style="14" customWidth="1"/>
-    <col min="2318" max="2318" width="13.88671875" style="14" customWidth="1"/>
-    <col min="2319" max="2560" width="9.109375" style="14"/>
-    <col min="2561" max="2561" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2562" max="2573" width="8.6640625" style="14" customWidth="1"/>
-    <col min="2574" max="2574" width="13.88671875" style="14" customWidth="1"/>
-    <col min="2575" max="2816" width="9.109375" style="14"/>
-    <col min="2817" max="2817" width="18.6640625" style="14" customWidth="1"/>
-    <col min="2818" max="2829" width="8.6640625" style="14" customWidth="1"/>
-    <col min="2830" max="2830" width="13.88671875" style="14" customWidth="1"/>
-    <col min="2831" max="3072" width="9.109375" style="14"/>
-    <col min="3073" max="3073" width="18.6640625" style="14" customWidth="1"/>
-    <col min="3074" max="3085" width="8.6640625" style="14" customWidth="1"/>
-    <col min="3086" max="3086" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3087" max="3328" width="9.109375" style="14"/>
-    <col min="3329" max="3329" width="18.6640625" style="14" customWidth="1"/>
-    <col min="3330" max="3341" width="8.6640625" style="14" customWidth="1"/>
-    <col min="3342" max="3342" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3343" max="3584" width="9.109375" style="14"/>
-    <col min="3585" max="3585" width="18.6640625" style="14" customWidth="1"/>
-    <col min="3586" max="3597" width="8.6640625" style="14" customWidth="1"/>
-    <col min="3598" max="3598" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3599" max="3840" width="9.109375" style="14"/>
-    <col min="3841" max="3841" width="18.6640625" style="14" customWidth="1"/>
-    <col min="3842" max="3853" width="8.6640625" style="14" customWidth="1"/>
-    <col min="3854" max="3854" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3855" max="4096" width="9.109375" style="14"/>
-    <col min="4097" max="4097" width="18.6640625" style="14" customWidth="1"/>
-    <col min="4098" max="4109" width="8.6640625" style="14" customWidth="1"/>
-    <col min="4110" max="4110" width="13.88671875" style="14" customWidth="1"/>
-    <col min="4111" max="4352" width="9.109375" style="14"/>
-    <col min="4353" max="4353" width="18.6640625" style="14" customWidth="1"/>
-    <col min="4354" max="4365" width="8.6640625" style="14" customWidth="1"/>
-    <col min="4366" max="4366" width="13.88671875" style="14" customWidth="1"/>
-    <col min="4367" max="4608" width="9.109375" style="14"/>
-    <col min="4609" max="4609" width="18.6640625" style="14" customWidth="1"/>
-    <col min="4610" max="4621" width="8.6640625" style="14" customWidth="1"/>
-    <col min="4622" max="4622" width="13.88671875" style="14" customWidth="1"/>
-    <col min="4623" max="4864" width="9.109375" style="14"/>
-    <col min="4865" max="4865" width="18.6640625" style="14" customWidth="1"/>
-    <col min="4866" max="4877" width="8.6640625" style="14" customWidth="1"/>
-    <col min="4878" max="4878" width="13.88671875" style="14" customWidth="1"/>
-    <col min="4879" max="5120" width="9.109375" style="14"/>
-    <col min="5121" max="5121" width="18.6640625" style="14" customWidth="1"/>
-    <col min="5122" max="5133" width="8.6640625" style="14" customWidth="1"/>
-    <col min="5134" max="5134" width="13.88671875" style="14" customWidth="1"/>
-    <col min="5135" max="5376" width="9.109375" style="14"/>
-    <col min="5377" max="5377" width="18.6640625" style="14" customWidth="1"/>
-    <col min="5378" max="5389" width="8.6640625" style="14" customWidth="1"/>
-    <col min="5390" max="5390" width="13.88671875" style="14" customWidth="1"/>
-    <col min="5391" max="5632" width="9.109375" style="14"/>
-    <col min="5633" max="5633" width="18.6640625" style="14" customWidth="1"/>
-    <col min="5634" max="5645" width="8.6640625" style="14" customWidth="1"/>
-    <col min="5646" max="5646" width="13.88671875" style="14" customWidth="1"/>
-    <col min="5647" max="5888" width="9.109375" style="14"/>
-    <col min="5889" max="5889" width="18.6640625" style="14" customWidth="1"/>
-    <col min="5890" max="5901" width="8.6640625" style="14" customWidth="1"/>
-    <col min="5902" max="5902" width="13.88671875" style="14" customWidth="1"/>
-    <col min="5903" max="6144" width="9.109375" style="14"/>
-    <col min="6145" max="6145" width="18.6640625" style="14" customWidth="1"/>
-    <col min="6146" max="6157" width="8.6640625" style="14" customWidth="1"/>
-    <col min="6158" max="6158" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6159" max="6400" width="9.109375" style="14"/>
-    <col min="6401" max="6401" width="18.6640625" style="14" customWidth="1"/>
-    <col min="6402" max="6413" width="8.6640625" style="14" customWidth="1"/>
-    <col min="6414" max="6414" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6415" max="6656" width="9.109375" style="14"/>
-    <col min="6657" max="6657" width="18.6640625" style="14" customWidth="1"/>
-    <col min="6658" max="6669" width="8.6640625" style="14" customWidth="1"/>
-    <col min="6670" max="6670" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6671" max="6912" width="9.109375" style="14"/>
-    <col min="6913" max="6913" width="18.6640625" style="14" customWidth="1"/>
-    <col min="6914" max="6925" width="8.6640625" style="14" customWidth="1"/>
-    <col min="6926" max="6926" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6927" max="7168" width="9.109375" style="14"/>
-    <col min="7169" max="7169" width="18.6640625" style="14" customWidth="1"/>
-    <col min="7170" max="7181" width="8.6640625" style="14" customWidth="1"/>
-    <col min="7182" max="7182" width="13.88671875" style="14" customWidth="1"/>
-    <col min="7183" max="7424" width="9.109375" style="14"/>
-    <col min="7425" max="7425" width="18.6640625" style="14" customWidth="1"/>
-    <col min="7426" max="7437" width="8.6640625" style="14" customWidth="1"/>
-    <col min="7438" max="7438" width="13.88671875" style="14" customWidth="1"/>
-    <col min="7439" max="7680" width="9.109375" style="14"/>
-    <col min="7681" max="7681" width="18.6640625" style="14" customWidth="1"/>
-    <col min="7682" max="7693" width="8.6640625" style="14" customWidth="1"/>
-    <col min="7694" max="7694" width="13.88671875" style="14" customWidth="1"/>
-    <col min="7695" max="7936" width="9.109375" style="14"/>
-    <col min="7937" max="7937" width="18.6640625" style="14" customWidth="1"/>
-    <col min="7938" max="7949" width="8.6640625" style="14" customWidth="1"/>
-    <col min="7950" max="7950" width="13.88671875" style="14" customWidth="1"/>
-    <col min="7951" max="8192" width="9.109375" style="14"/>
-    <col min="8193" max="8193" width="18.6640625" style="14" customWidth="1"/>
-    <col min="8194" max="8205" width="8.6640625" style="14" customWidth="1"/>
-    <col min="8206" max="8206" width="13.88671875" style="14" customWidth="1"/>
-    <col min="8207" max="8448" width="9.109375" style="14"/>
-    <col min="8449" max="8449" width="18.6640625" style="14" customWidth="1"/>
-    <col min="8450" max="8461" width="8.6640625" style="14" customWidth="1"/>
-    <col min="8462" max="8462" width="13.88671875" style="14" customWidth="1"/>
-    <col min="8463" max="8704" width="9.109375" style="14"/>
-    <col min="8705" max="8705" width="18.6640625" style="14" customWidth="1"/>
-    <col min="8706" max="8717" width="8.6640625" style="14" customWidth="1"/>
-    <col min="8718" max="8718" width="13.88671875" style="14" customWidth="1"/>
-    <col min="8719" max="8960" width="9.109375" style="14"/>
-    <col min="8961" max="8961" width="18.6640625" style="14" customWidth="1"/>
-    <col min="8962" max="8973" width="8.6640625" style="14" customWidth="1"/>
-    <col min="8974" max="8974" width="13.88671875" style="14" customWidth="1"/>
-    <col min="8975" max="9216" width="9.109375" style="14"/>
-    <col min="9217" max="9217" width="18.6640625" style="14" customWidth="1"/>
-    <col min="9218" max="9229" width="8.6640625" style="14" customWidth="1"/>
-    <col min="9230" max="9230" width="13.88671875" style="14" customWidth="1"/>
-    <col min="9231" max="9472" width="9.109375" style="14"/>
-    <col min="9473" max="9473" width="18.6640625" style="14" customWidth="1"/>
-    <col min="9474" max="9485" width="8.6640625" style="14" customWidth="1"/>
-    <col min="9486" max="9486" width="13.88671875" style="14" customWidth="1"/>
-    <col min="9487" max="9728" width="9.109375" style="14"/>
-    <col min="9729" max="9729" width="18.6640625" style="14" customWidth="1"/>
-    <col min="9730" max="9741" width="8.6640625" style="14" customWidth="1"/>
-    <col min="9742" max="9742" width="13.88671875" style="14" customWidth="1"/>
-    <col min="9743" max="9984" width="9.109375" style="14"/>
-    <col min="9985" max="9985" width="18.6640625" style="14" customWidth="1"/>
-    <col min="9986" max="9997" width="8.6640625" style="14" customWidth="1"/>
-    <col min="9998" max="9998" width="13.88671875" style="14" customWidth="1"/>
-    <col min="9999" max="10240" width="9.109375" style="14"/>
-    <col min="10241" max="10241" width="18.6640625" style="14" customWidth="1"/>
-    <col min="10242" max="10253" width="8.6640625" style="14" customWidth="1"/>
-    <col min="10254" max="10254" width="13.88671875" style="14" customWidth="1"/>
-    <col min="10255" max="10496" width="9.109375" style="14"/>
-    <col min="10497" max="10497" width="18.6640625" style="14" customWidth="1"/>
-    <col min="10498" max="10509" width="8.6640625" style="14" customWidth="1"/>
-    <col min="10510" max="10510" width="13.88671875" style="14" customWidth="1"/>
-    <col min="10511" max="10752" width="9.109375" style="14"/>
-    <col min="10753" max="10753" width="18.6640625" style="14" customWidth="1"/>
-    <col min="10754" max="10765" width="8.6640625" style="14" customWidth="1"/>
-    <col min="10766" max="10766" width="13.88671875" style="14" customWidth="1"/>
-    <col min="10767" max="11008" width="9.109375" style="14"/>
-    <col min="11009" max="11009" width="18.6640625" style="14" customWidth="1"/>
-    <col min="11010" max="11021" width="8.6640625" style="14" customWidth="1"/>
-    <col min="11022" max="11022" width="13.88671875" style="14" customWidth="1"/>
-    <col min="11023" max="11264" width="9.109375" style="14"/>
-    <col min="11265" max="11265" width="18.6640625" style="14" customWidth="1"/>
-    <col min="11266" max="11277" width="8.6640625" style="14" customWidth="1"/>
-    <col min="11278" max="11278" width="13.88671875" style="14" customWidth="1"/>
-    <col min="11279" max="11520" width="9.109375" style="14"/>
-    <col min="11521" max="11521" width="18.6640625" style="14" customWidth="1"/>
-    <col min="11522" max="11533" width="8.6640625" style="14" customWidth="1"/>
-    <col min="11534" max="11534" width="13.88671875" style="14" customWidth="1"/>
-    <col min="11535" max="11776" width="9.109375" style="14"/>
-    <col min="11777" max="11777" width="18.6640625" style="14" customWidth="1"/>
-    <col min="11778" max="11789" width="8.6640625" style="14" customWidth="1"/>
-    <col min="11790" max="11790" width="13.88671875" style="14" customWidth="1"/>
-    <col min="11791" max="12032" width="9.109375" style="14"/>
-    <col min="12033" max="12033" width="18.6640625" style="14" customWidth="1"/>
-    <col min="12034" max="12045" width="8.6640625" style="14" customWidth="1"/>
-    <col min="12046" max="12046" width="13.88671875" style="14" customWidth="1"/>
-    <col min="12047" max="12288" width="9.109375" style="14"/>
-    <col min="12289" max="12289" width="18.6640625" style="14" customWidth="1"/>
-    <col min="12290" max="12301" width="8.6640625" style="14" customWidth="1"/>
-    <col min="12302" max="12302" width="13.88671875" style="14" customWidth="1"/>
-    <col min="12303" max="12544" width="9.109375" style="14"/>
-    <col min="12545" max="12545" width="18.6640625" style="14" customWidth="1"/>
-    <col min="12546" max="12557" width="8.6640625" style="14" customWidth="1"/>
-    <col min="12558" max="12558" width="13.88671875" style="14" customWidth="1"/>
-    <col min="12559" max="12800" width="9.109375" style="14"/>
-    <col min="12801" max="12801" width="18.6640625" style="14" customWidth="1"/>
-    <col min="12802" max="12813" width="8.6640625" style="14" customWidth="1"/>
-    <col min="12814" max="12814" width="13.88671875" style="14" customWidth="1"/>
-    <col min="12815" max="13056" width="9.109375" style="14"/>
-    <col min="13057" max="13057" width="18.6640625" style="14" customWidth="1"/>
-    <col min="13058" max="13069" width="8.6640625" style="14" customWidth="1"/>
-    <col min="13070" max="13070" width="13.88671875" style="14" customWidth="1"/>
-    <col min="13071" max="13312" width="9.109375" style="14"/>
-    <col min="13313" max="13313" width="18.6640625" style="14" customWidth="1"/>
-    <col min="13314" max="13325" width="8.6640625" style="14" customWidth="1"/>
-    <col min="13326" max="13326" width="13.88671875" style="14" customWidth="1"/>
-    <col min="13327" max="13568" width="9.109375" style="14"/>
-    <col min="13569" max="13569" width="18.6640625" style="14" customWidth="1"/>
-    <col min="13570" max="13581" width="8.6640625" style="14" customWidth="1"/>
-    <col min="13582" max="13582" width="13.88671875" style="14" customWidth="1"/>
-    <col min="13583" max="13824" width="9.109375" style="14"/>
-    <col min="13825" max="13825" width="18.6640625" style="14" customWidth="1"/>
-    <col min="13826" max="13837" width="8.6640625" style="14" customWidth="1"/>
-    <col min="13838" max="13838" width="13.88671875" style="14" customWidth="1"/>
-    <col min="13839" max="14080" width="9.109375" style="14"/>
-    <col min="14081" max="14081" width="18.6640625" style="14" customWidth="1"/>
-    <col min="14082" max="14093" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14094" max="14094" width="13.88671875" style="14" customWidth="1"/>
-    <col min="14095" max="14336" width="9.109375" style="14"/>
-    <col min="14337" max="14337" width="18.6640625" style="14" customWidth="1"/>
-    <col min="14338" max="14349" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14350" max="14350" width="13.88671875" style="14" customWidth="1"/>
-    <col min="14351" max="14592" width="9.109375" style="14"/>
-    <col min="14593" max="14593" width="18.6640625" style="14" customWidth="1"/>
-    <col min="14594" max="14605" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14606" max="14606" width="13.88671875" style="14" customWidth="1"/>
-    <col min="14607" max="14848" width="9.109375" style="14"/>
-    <col min="14849" max="14849" width="18.6640625" style="14" customWidth="1"/>
-    <col min="14850" max="14861" width="8.6640625" style="14" customWidth="1"/>
-    <col min="14862" max="14862" width="13.88671875" style="14" customWidth="1"/>
-    <col min="14863" max="15104" width="9.109375" style="14"/>
-    <col min="15105" max="15105" width="18.6640625" style="14" customWidth="1"/>
-    <col min="15106" max="15117" width="8.6640625" style="14" customWidth="1"/>
-    <col min="15118" max="15118" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15119" max="15360" width="9.109375" style="14"/>
-    <col min="15361" max="15361" width="18.6640625" style="14" customWidth="1"/>
-    <col min="15362" max="15373" width="8.6640625" style="14" customWidth="1"/>
-    <col min="15374" max="15374" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15375" max="15616" width="9.109375" style="14"/>
-    <col min="15617" max="15617" width="18.6640625" style="14" customWidth="1"/>
-    <col min="15618" max="15629" width="8.6640625" style="14" customWidth="1"/>
-    <col min="15630" max="15630" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15631" max="15872" width="9.109375" style="14"/>
-    <col min="15873" max="15873" width="18.6640625" style="14" customWidth="1"/>
-    <col min="15874" max="15885" width="8.6640625" style="14" customWidth="1"/>
-    <col min="15886" max="15886" width="13.88671875" style="14" customWidth="1"/>
-    <col min="15887" max="16128" width="9.109375" style="14"/>
-    <col min="16129" max="16129" width="18.6640625" style="14" customWidth="1"/>
-    <col min="16130" max="16141" width="8.6640625" style="14" customWidth="1"/>
-    <col min="16142" max="16142" width="13.88671875" style="14" customWidth="1"/>
-    <col min="16143" max="16384" width="9.109375" style="14"/>
+    <col min="1" max="1" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15" max="256" width="9.140625" style="14"/>
+    <col min="257" max="257" width="18.7109375" style="14" customWidth="1"/>
+    <col min="258" max="269" width="8.7109375" style="14" customWidth="1"/>
+    <col min="270" max="270" width="13.85546875" style="14" customWidth="1"/>
+    <col min="271" max="512" width="9.140625" style="14"/>
+    <col min="513" max="513" width="18.7109375" style="14" customWidth="1"/>
+    <col min="514" max="525" width="8.7109375" style="14" customWidth="1"/>
+    <col min="526" max="526" width="13.85546875" style="14" customWidth="1"/>
+    <col min="527" max="768" width="9.140625" style="14"/>
+    <col min="769" max="769" width="18.7109375" style="14" customWidth="1"/>
+    <col min="770" max="781" width="8.7109375" style="14" customWidth="1"/>
+    <col min="782" max="782" width="13.85546875" style="14" customWidth="1"/>
+    <col min="783" max="1024" width="9.140625" style="14"/>
+    <col min="1025" max="1025" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1026" max="1037" width="8.7109375" style="14" customWidth="1"/>
+    <col min="1038" max="1038" width="13.85546875" style="14" customWidth="1"/>
+    <col min="1039" max="1280" width="9.140625" style="14"/>
+    <col min="1281" max="1281" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1282" max="1293" width="8.7109375" style="14" customWidth="1"/>
+    <col min="1294" max="1294" width="13.85546875" style="14" customWidth="1"/>
+    <col min="1295" max="1536" width="9.140625" style="14"/>
+    <col min="1537" max="1537" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1538" max="1549" width="8.7109375" style="14" customWidth="1"/>
+    <col min="1550" max="1550" width="13.85546875" style="14" customWidth="1"/>
+    <col min="1551" max="1792" width="9.140625" style="14"/>
+    <col min="1793" max="1793" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1794" max="1805" width="8.7109375" style="14" customWidth="1"/>
+    <col min="1806" max="1806" width="13.85546875" style="14" customWidth="1"/>
+    <col min="1807" max="2048" width="9.140625" style="14"/>
+    <col min="2049" max="2049" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2050" max="2061" width="8.7109375" style="14" customWidth="1"/>
+    <col min="2062" max="2062" width="13.85546875" style="14" customWidth="1"/>
+    <col min="2063" max="2304" width="9.140625" style="14"/>
+    <col min="2305" max="2305" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2306" max="2317" width="8.7109375" style="14" customWidth="1"/>
+    <col min="2318" max="2318" width="13.85546875" style="14" customWidth="1"/>
+    <col min="2319" max="2560" width="9.140625" style="14"/>
+    <col min="2561" max="2561" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2562" max="2573" width="8.7109375" style="14" customWidth="1"/>
+    <col min="2574" max="2574" width="13.85546875" style="14" customWidth="1"/>
+    <col min="2575" max="2816" width="9.140625" style="14"/>
+    <col min="2817" max="2817" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2818" max="2829" width="8.7109375" style="14" customWidth="1"/>
+    <col min="2830" max="2830" width="13.85546875" style="14" customWidth="1"/>
+    <col min="2831" max="3072" width="9.140625" style="14"/>
+    <col min="3073" max="3073" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3074" max="3085" width="8.7109375" style="14" customWidth="1"/>
+    <col min="3086" max="3086" width="13.85546875" style="14" customWidth="1"/>
+    <col min="3087" max="3328" width="9.140625" style="14"/>
+    <col min="3329" max="3329" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3330" max="3341" width="8.7109375" style="14" customWidth="1"/>
+    <col min="3342" max="3342" width="13.85546875" style="14" customWidth="1"/>
+    <col min="3343" max="3584" width="9.140625" style="14"/>
+    <col min="3585" max="3585" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3586" max="3597" width="8.7109375" style="14" customWidth="1"/>
+    <col min="3598" max="3598" width="13.85546875" style="14" customWidth="1"/>
+    <col min="3599" max="3840" width="9.140625" style="14"/>
+    <col min="3841" max="3841" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3842" max="3853" width="8.7109375" style="14" customWidth="1"/>
+    <col min="3854" max="3854" width="13.85546875" style="14" customWidth="1"/>
+    <col min="3855" max="4096" width="9.140625" style="14"/>
+    <col min="4097" max="4097" width="18.7109375" style="14" customWidth="1"/>
+    <col min="4098" max="4109" width="8.7109375" style="14" customWidth="1"/>
+    <col min="4110" max="4110" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4111" max="4352" width="9.140625" style="14"/>
+    <col min="4353" max="4353" width="18.7109375" style="14" customWidth="1"/>
+    <col min="4354" max="4365" width="8.7109375" style="14" customWidth="1"/>
+    <col min="4366" max="4366" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4367" max="4608" width="9.140625" style="14"/>
+    <col min="4609" max="4609" width="18.7109375" style="14" customWidth="1"/>
+    <col min="4610" max="4621" width="8.7109375" style="14" customWidth="1"/>
+    <col min="4622" max="4622" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4623" max="4864" width="9.140625" style="14"/>
+    <col min="4865" max="4865" width="18.7109375" style="14" customWidth="1"/>
+    <col min="4866" max="4877" width="8.7109375" style="14" customWidth="1"/>
+    <col min="4878" max="4878" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4879" max="5120" width="9.140625" style="14"/>
+    <col min="5121" max="5121" width="18.7109375" style="14" customWidth="1"/>
+    <col min="5122" max="5133" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5134" max="5134" width="13.85546875" style="14" customWidth="1"/>
+    <col min="5135" max="5376" width="9.140625" style="14"/>
+    <col min="5377" max="5377" width="18.7109375" style="14" customWidth="1"/>
+    <col min="5378" max="5389" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5390" max="5390" width="13.85546875" style="14" customWidth="1"/>
+    <col min="5391" max="5632" width="9.140625" style="14"/>
+    <col min="5633" max="5633" width="18.7109375" style="14" customWidth="1"/>
+    <col min="5634" max="5645" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5646" max="5646" width="13.85546875" style="14" customWidth="1"/>
+    <col min="5647" max="5888" width="9.140625" style="14"/>
+    <col min="5889" max="5889" width="18.7109375" style="14" customWidth="1"/>
+    <col min="5890" max="5901" width="8.7109375" style="14" customWidth="1"/>
+    <col min="5902" max="5902" width="13.85546875" style="14" customWidth="1"/>
+    <col min="5903" max="6144" width="9.140625" style="14"/>
+    <col min="6145" max="6145" width="18.7109375" style="14" customWidth="1"/>
+    <col min="6146" max="6157" width="8.7109375" style="14" customWidth="1"/>
+    <col min="6158" max="6158" width="13.85546875" style="14" customWidth="1"/>
+    <col min="6159" max="6400" width="9.140625" style="14"/>
+    <col min="6401" max="6401" width="18.7109375" style="14" customWidth="1"/>
+    <col min="6402" max="6413" width="8.7109375" style="14" customWidth="1"/>
+    <col min="6414" max="6414" width="13.85546875" style="14" customWidth="1"/>
+    <col min="6415" max="6656" width="9.140625" style="14"/>
+    <col min="6657" max="6657" width="18.7109375" style="14" customWidth="1"/>
+    <col min="6658" max="6669" width="8.7109375" style="14" customWidth="1"/>
+    <col min="6670" max="6670" width="13.85546875" style="14" customWidth="1"/>
+    <col min="6671" max="6912" width="9.140625" style="14"/>
+    <col min="6913" max="6913" width="18.7109375" style="14" customWidth="1"/>
+    <col min="6914" max="6925" width="8.7109375" style="14" customWidth="1"/>
+    <col min="6926" max="6926" width="13.85546875" style="14" customWidth="1"/>
+    <col min="6927" max="7168" width="9.140625" style="14"/>
+    <col min="7169" max="7169" width="18.7109375" style="14" customWidth="1"/>
+    <col min="7170" max="7181" width="8.7109375" style="14" customWidth="1"/>
+    <col min="7182" max="7182" width="13.85546875" style="14" customWidth="1"/>
+    <col min="7183" max="7424" width="9.140625" style="14"/>
+    <col min="7425" max="7425" width="18.7109375" style="14" customWidth="1"/>
+    <col min="7426" max="7437" width="8.7109375" style="14" customWidth="1"/>
+    <col min="7438" max="7438" width="13.85546875" style="14" customWidth="1"/>
+    <col min="7439" max="7680" width="9.140625" style="14"/>
+    <col min="7681" max="7681" width="18.7109375" style="14" customWidth="1"/>
+    <col min="7682" max="7693" width="8.7109375" style="14" customWidth="1"/>
+    <col min="7694" max="7694" width="13.85546875" style="14" customWidth="1"/>
+    <col min="7695" max="7936" width="9.140625" style="14"/>
+    <col min="7937" max="7937" width="18.7109375" style="14" customWidth="1"/>
+    <col min="7938" max="7949" width="8.7109375" style="14" customWidth="1"/>
+    <col min="7950" max="7950" width="13.85546875" style="14" customWidth="1"/>
+    <col min="7951" max="8192" width="9.140625" style="14"/>
+    <col min="8193" max="8193" width="18.7109375" style="14" customWidth="1"/>
+    <col min="8194" max="8205" width="8.7109375" style="14" customWidth="1"/>
+    <col min="8206" max="8206" width="13.85546875" style="14" customWidth="1"/>
+    <col min="8207" max="8448" width="9.140625" style="14"/>
+    <col min="8449" max="8449" width="18.7109375" style="14" customWidth="1"/>
+    <col min="8450" max="8461" width="8.7109375" style="14" customWidth="1"/>
+    <col min="8462" max="8462" width="13.85546875" style="14" customWidth="1"/>
+    <col min="8463" max="8704" width="9.140625" style="14"/>
+    <col min="8705" max="8705" width="18.7109375" style="14" customWidth="1"/>
+    <col min="8706" max="8717" width="8.7109375" style="14" customWidth="1"/>
+    <col min="8718" max="8718" width="13.85546875" style="14" customWidth="1"/>
+    <col min="8719" max="8960" width="9.140625" style="14"/>
+    <col min="8961" max="8961" width="18.7109375" style="14" customWidth="1"/>
+    <col min="8962" max="8973" width="8.7109375" style="14" customWidth="1"/>
+    <col min="8974" max="8974" width="13.85546875" style="14" customWidth="1"/>
+    <col min="8975" max="9216" width="9.140625" style="14"/>
+    <col min="9217" max="9217" width="18.7109375" style="14" customWidth="1"/>
+    <col min="9218" max="9229" width="8.7109375" style="14" customWidth="1"/>
+    <col min="9230" max="9230" width="13.85546875" style="14" customWidth="1"/>
+    <col min="9231" max="9472" width="9.140625" style="14"/>
+    <col min="9473" max="9473" width="18.7109375" style="14" customWidth="1"/>
+    <col min="9474" max="9485" width="8.7109375" style="14" customWidth="1"/>
+    <col min="9486" max="9486" width="13.85546875" style="14" customWidth="1"/>
+    <col min="9487" max="9728" width="9.140625" style="14"/>
+    <col min="9729" max="9729" width="18.7109375" style="14" customWidth="1"/>
+    <col min="9730" max="9741" width="8.7109375" style="14" customWidth="1"/>
+    <col min="9742" max="9742" width="13.85546875" style="14" customWidth="1"/>
+    <col min="9743" max="9984" width="9.140625" style="14"/>
+    <col min="9985" max="9985" width="18.7109375" style="14" customWidth="1"/>
+    <col min="9986" max="9997" width="8.7109375" style="14" customWidth="1"/>
+    <col min="9998" max="9998" width="13.85546875" style="14" customWidth="1"/>
+    <col min="9999" max="10240" width="9.140625" style="14"/>
+    <col min="10241" max="10241" width="18.7109375" style="14" customWidth="1"/>
+    <col min="10242" max="10253" width="8.7109375" style="14" customWidth="1"/>
+    <col min="10254" max="10254" width="13.85546875" style="14" customWidth="1"/>
+    <col min="10255" max="10496" width="9.140625" style="14"/>
+    <col min="10497" max="10497" width="18.7109375" style="14" customWidth="1"/>
+    <col min="10498" max="10509" width="8.7109375" style="14" customWidth="1"/>
+    <col min="10510" max="10510" width="13.85546875" style="14" customWidth="1"/>
+    <col min="10511" max="10752" width="9.140625" style="14"/>
+    <col min="10753" max="10753" width="18.7109375" style="14" customWidth="1"/>
+    <col min="10754" max="10765" width="8.7109375" style="14" customWidth="1"/>
+    <col min="10766" max="10766" width="13.85546875" style="14" customWidth="1"/>
+    <col min="10767" max="11008" width="9.140625" style="14"/>
+    <col min="11009" max="11009" width="18.7109375" style="14" customWidth="1"/>
+    <col min="11010" max="11021" width="8.7109375" style="14" customWidth="1"/>
+    <col min="11022" max="11022" width="13.85546875" style="14" customWidth="1"/>
+    <col min="11023" max="11264" width="9.140625" style="14"/>
+    <col min="11265" max="11265" width="18.7109375" style="14" customWidth="1"/>
+    <col min="11266" max="11277" width="8.7109375" style="14" customWidth="1"/>
+    <col min="11278" max="11278" width="13.85546875" style="14" customWidth="1"/>
+    <col min="11279" max="11520" width="9.140625" style="14"/>
+    <col min="11521" max="11521" width="18.7109375" style="14" customWidth="1"/>
+    <col min="11522" max="11533" width="8.7109375" style="14" customWidth="1"/>
+    <col min="11534" max="11534" width="13.85546875" style="14" customWidth="1"/>
+    <col min="11535" max="11776" width="9.140625" style="14"/>
+    <col min="11777" max="11777" width="18.7109375" style="14" customWidth="1"/>
+    <col min="11778" max="11789" width="8.7109375" style="14" customWidth="1"/>
+    <col min="11790" max="11790" width="13.85546875" style="14" customWidth="1"/>
+    <col min="11791" max="12032" width="9.140625" style="14"/>
+    <col min="12033" max="12033" width="18.7109375" style="14" customWidth="1"/>
+    <col min="12034" max="12045" width="8.7109375" style="14" customWidth="1"/>
+    <col min="12046" max="12046" width="13.85546875" style="14" customWidth="1"/>
+    <col min="12047" max="12288" width="9.140625" style="14"/>
+    <col min="12289" max="12289" width="18.7109375" style="14" customWidth="1"/>
+    <col min="12290" max="12301" width="8.7109375" style="14" customWidth="1"/>
+    <col min="12302" max="12302" width="13.85546875" style="14" customWidth="1"/>
+    <col min="12303" max="12544" width="9.140625" style="14"/>
+    <col min="12545" max="12545" width="18.7109375" style="14" customWidth="1"/>
+    <col min="12546" max="12557" width="8.7109375" style="14" customWidth="1"/>
+    <col min="12558" max="12558" width="13.85546875" style="14" customWidth="1"/>
+    <col min="12559" max="12800" width="9.140625" style="14"/>
+    <col min="12801" max="12801" width="18.7109375" style="14" customWidth="1"/>
+    <col min="12802" max="12813" width="8.7109375" style="14" customWidth="1"/>
+    <col min="12814" max="12814" width="13.85546875" style="14" customWidth="1"/>
+    <col min="12815" max="13056" width="9.140625" style="14"/>
+    <col min="13057" max="13057" width="18.7109375" style="14" customWidth="1"/>
+    <col min="13058" max="13069" width="8.7109375" style="14" customWidth="1"/>
+    <col min="13070" max="13070" width="13.85546875" style="14" customWidth="1"/>
+    <col min="13071" max="13312" width="9.140625" style="14"/>
+    <col min="13313" max="13313" width="18.7109375" style="14" customWidth="1"/>
+    <col min="13314" max="13325" width="8.7109375" style="14" customWidth="1"/>
+    <col min="13326" max="13326" width="13.85546875" style="14" customWidth="1"/>
+    <col min="13327" max="13568" width="9.140625" style="14"/>
+    <col min="13569" max="13569" width="18.7109375" style="14" customWidth="1"/>
+    <col min="13570" max="13581" width="8.7109375" style="14" customWidth="1"/>
+    <col min="13582" max="13582" width="13.85546875" style="14" customWidth="1"/>
+    <col min="13583" max="13824" width="9.140625" style="14"/>
+    <col min="13825" max="13825" width="18.7109375" style="14" customWidth="1"/>
+    <col min="13826" max="13837" width="8.7109375" style="14" customWidth="1"/>
+    <col min="13838" max="13838" width="13.85546875" style="14" customWidth="1"/>
+    <col min="13839" max="14080" width="9.140625" style="14"/>
+    <col min="14081" max="14081" width="18.7109375" style="14" customWidth="1"/>
+    <col min="14082" max="14093" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14094" max="14094" width="13.85546875" style="14" customWidth="1"/>
+    <col min="14095" max="14336" width="9.140625" style="14"/>
+    <col min="14337" max="14337" width="18.7109375" style="14" customWidth="1"/>
+    <col min="14338" max="14349" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14350" max="14350" width="13.85546875" style="14" customWidth="1"/>
+    <col min="14351" max="14592" width="9.140625" style="14"/>
+    <col min="14593" max="14593" width="18.7109375" style="14" customWidth="1"/>
+    <col min="14594" max="14605" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14606" max="14606" width="13.85546875" style="14" customWidth="1"/>
+    <col min="14607" max="14848" width="9.140625" style="14"/>
+    <col min="14849" max="14849" width="18.7109375" style="14" customWidth="1"/>
+    <col min="14850" max="14861" width="8.7109375" style="14" customWidth="1"/>
+    <col min="14862" max="14862" width="13.85546875" style="14" customWidth="1"/>
+    <col min="14863" max="15104" width="9.140625" style="14"/>
+    <col min="15105" max="15105" width="18.7109375" style="14" customWidth="1"/>
+    <col min="15106" max="15117" width="8.7109375" style="14" customWidth="1"/>
+    <col min="15118" max="15118" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15119" max="15360" width="9.140625" style="14"/>
+    <col min="15361" max="15361" width="18.7109375" style="14" customWidth="1"/>
+    <col min="15362" max="15373" width="8.7109375" style="14" customWidth="1"/>
+    <col min="15374" max="15374" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15375" max="15616" width="9.140625" style="14"/>
+    <col min="15617" max="15617" width="18.7109375" style="14" customWidth="1"/>
+    <col min="15618" max="15629" width="8.7109375" style="14" customWidth="1"/>
+    <col min="15630" max="15630" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15631" max="15872" width="9.140625" style="14"/>
+    <col min="15873" max="15873" width="18.7109375" style="14" customWidth="1"/>
+    <col min="15874" max="15885" width="8.7109375" style="14" customWidth="1"/>
+    <col min="15886" max="15886" width="13.85546875" style="14" customWidth="1"/>
+    <col min="15887" max="16128" width="9.140625" style="14"/>
+    <col min="16129" max="16129" width="18.7109375" style="14" customWidth="1"/>
+    <col min="16130" max="16141" width="8.7109375" style="14" customWidth="1"/>
+    <col min="16142" max="16142" width="13.85546875" style="14" customWidth="1"/>
+    <col min="16143" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>65</v>
       </c>
@@ -4752,7 +4712,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>21</v>
       </c>
@@ -4774,7 +4734,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="15" t="s">
         <v>23</v>
@@ -4814,7 +4774,7 @@
       </c>
       <c r="N3" s="25"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>35</v>
       </c>
@@ -4858,7 +4818,7 @@
         <v>98.109379238265419</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>36</v>
       </c>
@@ -4902,7 +4862,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>37</v>
       </c>
@@ -4946,7 +4906,7 @@
         <v>91.203532936854813</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>38</v>
       </c>
@@ -4990,7 +4950,7 @@
         <v>2.6969079949837513</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>39</v>
       </c>
@@ -5034,7 +4994,7 @@
         <v>19.429196845962725</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
@@ -5078,7 +5038,7 @@
         <v>82.719397840598305</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>41</v>
       </c>
@@ -5122,7 +5082,7 @@
         <v>290.67448888258701</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>42</v>
       </c>
@@ -5166,7 +5126,7 @@
         <v>4.5384189103972785</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>43</v>
       </c>
@@ -5210,7 +5170,7 @@
         <v>395.35307721462999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>44</v>
       </c>
@@ -5254,7 +5214,7 @@
         <v>30.351680125240616</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>45</v>
       </c>
@@ -5298,7 +5258,7 @@
         <v>94.406638082434583</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>46</v>
       </c>
@@ -5342,7 +5302,7 @@
         <v>227.65627654817214</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>47</v>
       </c>
@@ -5386,7 +5346,7 @@
         <v>18.259062314984345</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
@@ -5430,7 +5390,7 @@
         <v>189.41373963143624</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>49</v>
       </c>
@@ -5474,7 +5434,7 @@
         <v>159.38598116774591</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
@@ -5518,7 +5478,7 @@
         <v>149.1924076893026</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>51</v>
       </c>
@@ -5562,7 +5522,7 @@
         <v>25.017794346683203</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>52</v>
       </c>
@@ -5606,7 +5566,7 @@
         <v>215.63170621062355</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
@@ -5650,7 +5610,7 @@
         <v>48.261103455658294</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>54</v>
       </c>
@@ -5694,7 +5654,7 @@
         <v>4.3563039980453455</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>55</v>
       </c>
@@ -5738,7 +5698,7 @@
         <v>3.7608655501736701</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>56</v>
       </c>
@@ -5782,7 +5742,7 @@
         <v>37.373709587305079</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>57</v>
       </c>
@@ -5826,7 +5786,7 @@
         <v>69.3391487742024</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>58</v>
       </c>
@@ -5870,7 +5830,7 @@
         <v>104.10743757219501</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>59</v>
       </c>
@@ -5914,7 +5874,7 @@
         <v>5.7455071791217112</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>60</v>
       </c>
@@ -5958,7 +5918,7 @@
         <v>327.06587176910244</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>61</v>
       </c>
@@ -6002,7 +5962,7 @@
         <v>41.463667461386962</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>62</v>
       </c>
@@ -6046,139 +6006,139 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
     </row>
   </sheetData>
@@ -6193,22 +6153,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6219,17 +6179,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -6237,17 +6197,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="e">
         <f>CB_DATA_!#REF!</f>
         <v>#REF!</v>
@@ -6257,12 +6217,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6270,17 +6230,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -6288,22 +6248,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>19</v>
       </c>
